--- a/pred_ohlcv/54_21/2019-11-24 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 ENJ ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>145282.8687</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -964,7 +964,7 @@
         <v>137898.9418</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>138451.9631</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-285466.802</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-253271.0054000001</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-253271.0054000001</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-253271.0054000001</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-253832.879</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-253832.879</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-242522.7575</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-242522.7575</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-242522.7575</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-242522.7575</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-231416.7925</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-231416.7925</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-221416.7925</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-221416.7925</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-221408.7925</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-179027.0128</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-178134.2428</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-173763.7234</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-173763.7234</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-165101.6977</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-165101.6977</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-165201.6977</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-146578.8164</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-146578.8164</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-146578.8164</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-140907.6626</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-140936.0314</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-140928.9314</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-140928.9314</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-121291.4603</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-101205.2638</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-101205.2638</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-101495.4508</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-98588.43650000005</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-98553.87550000005</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-98617.20020000005</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-89659.20020000005</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-56290.28410000005</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>8818.473799999952</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8818.473799999952</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3818.473799999952</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3364.372899999953</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4333.758900000048</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4440.184300000048</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-2575.034300000048</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-5318.776100000047</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-24 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>154259.6672</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>137828.1494</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>137836.1494</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>137844.1494</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>137830.3355</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>137838.3355</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>137828.3355</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>137858.3355</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>137878.3355</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>137878.3355</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>137878.3355</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>137888.9418</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-221408.7925</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-179027.0128</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-178134.2428</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-173763.7234</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-173763.7234</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-165101.6977</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-165101.6977</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-165201.6977</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-146578.8164</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-146578.8164</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-146578.8164</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-140907.6626</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-140936.0314</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-140928.9314</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-140928.9314</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-121291.4603</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-101205.2638</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-101495.4508</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-98588.43650000005</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-98553.87550000005</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-89659.20020000005</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-56290.28410000005</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-44701.74060000005</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>8832.673399999952</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>8818.473799999952</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8818.473799999952</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3818.473799999952</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3364.372899999953</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4333.758900000048</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-4440.184300000048</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-2575.034300000048</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-5318.776100000047</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
